--- a/iBudget/demo.xlsx
+++ b/iBudget/demo.xlsx
@@ -7,52 +7,43 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Income_history" sheetId="1" r:id="rId1"/>
+    <sheet name="Spending_history" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
-  <si>
-    <t>income</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+  <si>
+    <t>Individual spending</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
   <si>
     <t>fund</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>premiya</t>
-  </si>
-  <si>
-    <t>something</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>zarplata</t>
+    <t>kek</t>
+  </si>
+  <si>
+    <t>kredo</t>
+  </si>
+  <si>
+    <t>kekos</t>
   </si>
   <si>
     <t>privat</t>
   </si>
   <si>
-    <t>bilo delo</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>kredo</t>
+    <t>Group spending</t>
+  </si>
+  <si>
+    <t>member</t>
   </si>
 </sst>
 </file>
@@ -60,8 +51,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="mmmm d yyyy"/>
-    <numFmt numFmtId="165" formatCode="$#,##0"/>
+    <numFmt numFmtId="164" formatCode="$#.#0"/>
+    <numFmt numFmtId="165" formatCode="mmmm d yyyy"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -401,13 +392,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F6"/>
+  <dimension ref="A2:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:6" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,76 +411,64 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
+      <c r="C3" s="2">
+        <v>125.5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>43418</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="2:6">
-      <c r="B3" t="s">
+    <row r="4" spans="1:5">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>678.1255</v>
+      </c>
+      <c r="D4" s="3">
+        <v>43411</v>
+      </c>
+      <c r="E4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2">
-        <v>43402</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1.2345</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="C5" s="2">
+        <v>225.5</v>
+      </c>
+      <c r="D5" s="3">
+        <v>43425</v>
+      </c>
+      <c r="E5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
-      <c r="B4" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2">
-        <v>43404</v>
-      </c>
-      <c r="E4" s="3">
-        <v>100</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2">
-        <v>43402</v>
-      </c>
-      <c r="E5" s="3">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2">
-        <v>43401</v>
-      </c>
-      <c r="E6" s="3">
-        <v>123</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/iBudget/demo.xlsx
+++ b/iBudget/demo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Individual spending</t>
   </si>
@@ -28,22 +28,31 @@
     <t>fund</t>
   </si>
   <si>
+    <t>flash</t>
+  </si>
+  <si>
+    <t>privat</t>
+  </si>
+  <si>
     <t>kek</t>
   </si>
   <si>
     <t>kredo</t>
   </si>
   <si>
-    <t>kekos</t>
-  </si>
-  <si>
-    <t>privat</t>
-  </si>
-  <si>
     <t>Group spending</t>
   </si>
   <si>
-    <t>member</t>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>abysho666@gmail.com</t>
+  </si>
+  <si>
+    <t>FYX / family</t>
+  </si>
+  <si>
+    <t>Individual fund</t>
   </si>
 </sst>
 </file>
@@ -79,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -87,17 +96,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,13 +438,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E7"/>
+  <dimension ref="A2:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="6" width="25.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="2" spans="1:5">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,53 +462,53 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2">
-        <v>125.5</v>
-      </c>
-      <c r="D3" s="3">
-        <v>43418</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C3" s="3">
+        <v>123</v>
+      </c>
+      <c r="D3" s="4">
+        <v>43384</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
-        <v>678.1255</v>
-      </c>
-      <c r="D4" s="3">
-        <v>43411</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
+      <c r="C4" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D4" s="4">
+        <v>43379</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2">
-        <v>225.5</v>
-      </c>
-      <c r="D5" s="3">
-        <v>43425</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
+      <c r="C5" s="3">
+        <v>111111</v>
+      </c>
+      <c r="D5" s="4">
+        <v>43390</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1</v>
@@ -469,6 +518,23 @@
       </c>
       <c r="E7" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4">
+        <v>43390</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
